--- a/doc/redis-test.xlsx
+++ b/doc/redis-test.xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\OpenSource\redis-rtd\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1723421E-4627-472B-B63F-7D2AA08FB4C3}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B399D66D-3ED8-4DB7-BA9A-BB957F6F4A46}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16155" windowHeight="7005" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,10 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t>BINANCE</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>redis</t>
   </si>
@@ -42,36 +39,53 @@
     <t>progId</t>
   </si>
   <si>
-    <t>routingKey</t>
-  </si>
-  <si>
     <t>FIELD</t>
   </si>
   <si>
-    <t>ROUTING_KEY_0</t>
-  </si>
-  <si>
-    <t>ROUTING_KEY_1</t>
-  </si>
-  <si>
-    <t>ROUTING_KEY_2</t>
+    <t>padding</t>
+  </si>
+  <si>
+    <t>JSON_0</t>
+  </si>
+  <si>
+    <t>JSON_1</t>
+  </si>
+  <si>
+    <t>JSON_2</t>
+  </si>
+  <si>
+    <t>RAW_1</t>
+  </si>
+  <si>
+    <t>RAW_0</t>
+  </si>
+  <si>
+    <t>RAW_2</t>
+  </si>
+  <si>
+    <t>raw</t>
+  </si>
+  <si>
+    <t>Chan</t>
+  </si>
+  <si>
+    <t>channel</t>
+  </si>
+  <si>
+    <t>len</t>
+  </si>
+  <si>
+    <t>This text was added by using code 6/24/2018 11:25:10 AM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -86,13 +100,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
       </patternFill>
     </fill>
   </fills>
@@ -106,37 +121,47 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4" tint="0.39997558519241921"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4" tint="0.39997558519241921"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4" tint="0.39997558519241921"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Input" xfId="1" builtinId="20"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="4">
     <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -155,29 +180,146 @@
 <volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <volType type="realTimeData">
     <main first="redis">
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>localhost</stp>
-        <stp>ROUTING_KEY_0</stp>
+      <tp>
+        <v>7891</v>
+        <stp/>
+        <stp>localhost</stp>
+        <stp>JSON_2</stp>
+        <stp>len</stp>
+        <tr r="E7" s="1"/>
+      </tp>
+      <tp>
+        <v>0</v>
+        <stp/>
+        <stp>localhost</stp>
+        <stp>JSON_0</stp>
+        <stp>len</stp>
+        <tr r="E5" s="1"/>
+      </tp>
+      <tp>
+        <v>6346</v>
+        <stp/>
+        <stp>localhost</stp>
+        <stp>JSON_1</stp>
+        <stp>len</stp>
+        <tr r="E6" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>JSON_1</v>
+        <stp/>
+        <stp>localhost</stp>
+        <stp>JSON_1</stp>
+        <stp>channel</stp>
+        <tr r="C6" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>JSON_0</v>
+        <stp/>
+        <stp>localhost</stp>
+        <stp>JSON_0</stp>
+        <stp>channel</stp>
+        <tr r="C5" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>JSON_2</v>
+        <stp/>
+        <stp>localhost</stp>
+        <stp>JSON_2</stp>
+        <stp>channel</stp>
+        <tr r="C7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>{ "channel": "JSON_0", "FIELD": 30716, "len": 0, "padding": ""}</v>
+        <stp/>
+        <stp>localhost</stp>
+        <stp>JSON_0</stp>
+        <tr r="G5" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>{ "channel": "JSON_1", "FIELD": 30717, "len": 6346, "padding": "xxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxx"}</v>
+        <stp/>
+        <stp>localhost</stp>
+        <stp>JSON_1</stp>
+        <tr r="G6" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>{ "channel": "JSON_2", "FIELD": 30718, "len": 7891, "padding": "xxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxx"}</v>
+        <stp/>
+        <stp>localhost</stp>
+        <stp>JSON_2</stp>
+        <tr r="G7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>xxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxx</v>
+        <stp/>
+        <stp>localhost</stp>
+        <stp>JSON_2</stp>
+        <stp>padding</stp>
+        <tr r="F7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>xxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxx</v>
+        <stp/>
+        <stp>localhost</stp>
+        <stp>JSON_1</stp>
+        <stp>padding</stp>
+        <tr r="F6" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>localhost</stp>
+        <stp>JSON_0</stp>
+        <stp>padding</stp>
+        <tr r="F5" s="1"/>
+      </tp>
+      <tp>
+        <v>30717</v>
+        <stp/>
+        <stp>localhost</stp>
+        <stp>JSON_1</stp>
         <stp>FIELD</stp>
-        <tr r="C6" s="1"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>localhost</stp>
-        <stp>ROUTING_KEY_1</stp>
+        <tr r="D6" s="1"/>
+      </tp>
+      <tp>
+        <v>30716</v>
+        <stp/>
+        <stp>localhost</stp>
+        <stp>JSON_0</stp>
         <stp>FIELD</stp>
-        <tr r="C7" s="1"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>localhost</stp>
-        <stp>ROUTING_KEY_2</stp>
+        <tr r="D5" s="1"/>
+      </tp>
+      <tp>
+        <v>30718</v>
+        <stp/>
+        <stp>localhost</stp>
+        <stp>JSON_2</stp>
         <stp>FIELD</stp>
-        <tr r="C8" s="1"/>
+        <tr r="D7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>{ "channel": "RAW_2", "FIELD": 30717, "len": 2922, "padding": "xxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxx"}</v>
+        <stp/>
+        <stp>localhost</stp>
+        <stp>RAW_2</stp>
+        <stp/>
+        <tr r="C12" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>{ "channel": "RAW_1", "FIELD": 30716, "len": 250, "padding": "xxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxx"}</v>
+        <stp/>
+        <stp>localhost</stp>
+        <stp>RAW_1</stp>
+        <stp/>
+        <tr r="C11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>{ "channel": "RAW_0", "FIELD": 30716, "len": 0, "padding": ""}</v>
+        <stp/>
+        <stp>localhost</stp>
+        <stp>RAW_0</stp>
+        <stp/>
+        <tr r="C10" s="1"/>
       </tp>
     </main>
   </volType>
@@ -185,12 +327,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="B5:C8" totalsRowShown="0">
-  <autoFilter ref="B5:C8" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="routingKey"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="FIELD" dataDxfId="0">
-      <calculatedColumnFormula>RTD(progId,,"localhost",Table1[[#This Row],[routingKey]],Table1[[#Headers],[FIELD]])</calculatedColumnFormula>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="B4:F7" totalsRowShown="0">
+  <autoFilter ref="B4:F7" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Chan"/>
+    <tableColumn id="4" xr3:uid="{26BD59B5-3D9A-4D57-8D5C-103D60ED8788}" name="channel" dataDxfId="3">
+      <calculatedColumnFormula>RTD(progId,,"localhost",Table1[[#This Row],[Chan]],Table1[[#Headers],[channel]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="FIELD" dataDxfId="2">
+      <calculatedColumnFormula>RTD(progId,,"localhost",Table1[[#This Row],[Chan]],Table1[[#Headers],[FIELD]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{9FA3B82A-3F7C-4441-88E7-0C903B64ABAB}" name="len" dataDxfId="1">
+      <calculatedColumnFormula>RTD(progId,,"localhost",Table1[[#This Row],[channel]],Table1[[#Headers],[len]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{BD13D85A-4C00-4B1F-95DE-A970E6992D92}" name="padding" dataDxfId="0">
+      <calculatedColumnFormula>RTD(progId,,"localhost",Table1[[#This Row],[Chan]],Table1[[#Headers],[padding]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -494,67 +645,161 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:C8"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.5703125" customWidth="1"/>
-    <col min="2" max="2" width="26.140625" customWidth="1"/>
-    <col min="3" max="3" width="19.140625" customWidth="1"/>
+    <col min="2" max="2" width="23" customWidth="1"/>
+    <col min="3" max="3" width="22" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B2" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B4" s="1" t="s">
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="2" t="str">
+        <f>RTD(progId,,"localhost",Table1[[#This Row],[Chan]],Table1[[#Headers],[channel]])</f>
+        <v>JSON_0</v>
+      </c>
+      <c r="D5" s="2">
+        <f>RTD(progId,,"localhost",Table1[[#This Row],[Chan]],Table1[[#Headers],[FIELD]])</f>
+        <v>30716</v>
+      </c>
+      <c r="E5" s="2">
+        <f>RTD(progId,,"localhost",Table1[[#This Row],[channel]],Table1[[#Headers],[len]])</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="F5" s="2" t="str">
+        <f>RTD(progId,,"localhost",Table1[[#This Row],[Chan]],Table1[[#Headers],[padding]])</f>
+        <v/>
+      </c>
+      <c r="G5" t="str">
+        <f>RTD(progId,,"localhost",Table1[[#This Row],[Chan]])</f>
+        <v>{ "channel": "JSON_0", "FIELD": 30716, "len": 0, "padding": ""}</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="2" t="e">
-        <f>RTD(progId,,"localhost",Table1[[#This Row],[routingKey]],Table1[[#Headers],[FIELD]])</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C6" s="2" t="str">
+        <f>RTD(progId,,"localhost",Table1[[#This Row],[Chan]],Table1[[#Headers],[channel]])</f>
+        <v>JSON_1</v>
+      </c>
+      <c r="D6" s="2">
+        <f>RTD(progId,,"localhost",Table1[[#This Row],[Chan]],Table1[[#Headers],[FIELD]])</f>
+        <v>30717</v>
+      </c>
+      <c r="E6" s="2">
+        <f>RTD(progId,,"localhost",Table1[[#This Row],[channel]],Table1[[#Headers],[len]])</f>
+        <v>6346</v>
+      </c>
+      <c r="F6" s="2" t="str">
+        <f>RTD(progId,,"localhost",Table1[[#This Row],[Chan]],Table1[[#Headers],[padding]])</f>
+        <v>xxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxx</v>
+      </c>
+      <c r="G6" t="str">
+        <f>RTD(progId,,"localhost",Table1[[#This Row],[Chan]])</f>
+        <v>{ "channel": "JSON_1", "FIELD": 30717, "len": 6346, "padding": "xxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxx"}</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="2" t="e">
-        <f>RTD(progId,,"localhost",Table1[[#This Row],[routingKey]],Table1[[#Headers],[FIELD]])</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+      <c r="C7" s="2" t="str">
+        <f>RTD(progId,,"localhost",Table1[[#This Row],[Chan]],Table1[[#Headers],[channel]])</f>
+        <v>JSON_2</v>
+      </c>
+      <c r="D7" s="2">
+        <f>RTD(progId,,"localhost",Table1[[#This Row],[Chan]],Table1[[#Headers],[FIELD]])</f>
+        <v>30718</v>
+      </c>
+      <c r="E7" s="2">
+        <f>RTD(progId,,"localhost",Table1[[#This Row],[channel]],Table1[[#Headers],[len]])</f>
+        <v>7891</v>
+      </c>
+      <c r="F7" s="2" t="str">
+        <f>RTD(progId,,"localhost",Table1[[#This Row],[Chan]],Table1[[#Headers],[padding]])</f>
+        <v>xxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxx</v>
+      </c>
+      <c r="G7" t="str">
+        <f>RTD(progId,,"localhost",Table1[[#This Row],[Chan]])</f>
+        <v>{ "channel": "JSON_2", "FIELD": 30718, "len": 7891, "padding": "xxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxx"}</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="str">
+        <f>RTD(progId,,"localhost",B10,"")</f>
+        <v>{ "channel": "RAW_0", "FIELD": 30716, "len": 0, "padding": ""}</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B11" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="2" t="e">
-        <f>RTD(progId,,"localhost",Table1[[#This Row],[routingKey]],Table1[[#Headers],[FIELD]])</f>
-        <v>#N/A</v>
+      <c r="C11" t="str">
+        <f>RTD(progId,,"localhost",B11,"")</f>
+        <v>{ "channel": "RAW_1", "FIELD": 30716, "len": 250, "padding": "xxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxx"}</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="str">
+        <f>RTD(progId,,"localhost",B12,"")</f>
+        <v>{ "channel": "RAW_2", "FIELD": 30717, "len": 2922, "padding": "xxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxx"}</v>
       </c>
     </row>
   </sheetData>
@@ -568,6 +813,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
